--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="159">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,18 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>stopped</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
@@ -79,394 +82,409 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>beautifully</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>apples</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>garlic</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>bun</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nicely</t>
+    <t>pizza</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>always</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>dish</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>maker</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
     <t>making</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>bowl</t>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>many</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>anyone</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>also</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>purchased</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>lot</t>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>better</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>product</t>
@@ -830,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,10 +856,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -899,13 +917,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -917,31 +935,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="L3">
+        <v>90</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>29</v>
-      </c>
-      <c r="M3">
-        <v>29</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -949,13 +967,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.725</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -967,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -991,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -999,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6521739130434783</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1020,16 +1038,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1041,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1049,13 +1067,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1067,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8699690402476781</v>
+        <v>0.90625</v>
       </c>
       <c r="L6">
-        <v>562</v>
+        <v>116</v>
       </c>
       <c r="M6">
-        <v>562</v>
+        <v>116</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1091,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1099,13 +1117,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4031007751937984</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1117,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1141,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1149,13 +1167,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3962264150943396</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1167,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1191,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1199,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3636363636363636</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1241,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1249,13 +1267,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.36</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1267,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.85</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1299,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2692307692307692</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1317,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1341,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1349,37 +1367,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1452991452991453</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1391,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1399,13 +1417,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1351351351351351</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1417,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7333333333333333</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1441,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1449,63 +1467,87 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.07731958762886598</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>163</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.7229437229437229</v>
+      </c>
+      <c r="L14">
+        <v>167</v>
+      </c>
+      <c r="M14">
+        <v>167</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>0.06</v>
-      </c>
-      <c r="F14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>179</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7254237288135593</v>
-      </c>
-      <c r="L14">
-        <v>214</v>
-      </c>
-      <c r="M14">
-        <v>214</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>180</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7186147186147186</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L15">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="M15">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1517,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1543,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6581059390048154</v>
+        <v>0.6548956661316212</v>
       </c>
       <c r="L18">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="M18">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1595,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6571428571428571</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1621,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6530612244897959</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6493506493506493</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.647887323943662</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.640625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6307692307692307</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1803,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6078431372549019</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1829,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6041666666666666</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1855,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5925925925925926</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1881,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5873015873015873</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1907,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5789473684210527</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1933,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1959,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5694444444444444</v>
+        <v>0.5625</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1985,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5662650602409639</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2011,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5614035087719298</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2037,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.5600000000000001</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2063,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.5428571428571428</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2089,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M38">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2115,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2141,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5209580838323353</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2167,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.5151515151515151</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2193,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.5076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2219,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.4957264957264957</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L43">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2245,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.4918032786885246</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2271,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.4838709677419355</v>
+        <v>0.475</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2297,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.481203007518797</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L46">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2323,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.48</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2349,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.475</v>
+        <v>0.45</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2375,12 +2417,12 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
         <v>0.4489795918367347</v>
@@ -2406,7 +2448,7 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50">
         <v>0.4457831325301205</v>
@@ -2432,16 +2474,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.4444444444444444</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2453,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.4390243902439024</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2479,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.4342105263157895</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2505,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.4285714285714285</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2531,15 +2573,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L55">
         <v>15</v>
@@ -2557,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.4264705882352941</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2583,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.4210526315789473</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2609,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.4007782101167315</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L58">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2635,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K59">
-        <v>0.3846153846153846</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2661,12 +2703,12 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K60">
         <v>0.3833333333333334</v>
@@ -2692,16 +2734,16 @@
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>0.3695652173913043</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2718,16 +2760,16 @@
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K62">
-        <v>0.3651960784313725</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L62">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="M62">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2739,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>259</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K63">
-        <v>0.3603603603603603</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2765,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>71</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>0.3571428571428572</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2791,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K65">
-        <v>0.3458646616541353</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L65">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M65">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2817,21 +2859,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>0.3452380952380952</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2843,21 +2885,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67">
-        <v>0.3404255319148936</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2869,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>0.3366336633663367</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L68">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2895,21 +2937,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>67</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69">
-        <v>0.3272727272727273</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M69">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2921,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70">
-        <v>0.3082191780821918</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L70">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2947,21 +2989,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>505</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K71">
-        <v>0.3076923076923077</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2973,21 +3015,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>0.2916666666666667</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2999,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K73">
-        <v>0.2877697841726619</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3025,21 +3067,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K74">
-        <v>0.2847682119205298</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L74">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3051,47 +3093,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K75">
-        <v>0.2822966507177033</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L75">
+        <v>25</v>
+      </c>
+      <c r="M75">
+        <v>25</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
         <v>59</v>
-      </c>
-      <c r="M75">
-        <v>59</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>150</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K76">
-        <v>0.28125</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3103,21 +3145,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K77">
-        <v>0.2777777777777778</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L77">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3129,21 +3171,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K78">
-        <v>0.2666666666666667</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3155,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>77</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K79">
-        <v>0.2638888888888889</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3181,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K80">
-        <v>0.2612612612612613</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3207,21 +3249,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K81">
-        <v>0.2604951560818084</v>
+        <v>0.25</v>
       </c>
       <c r="L81">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3233,47 +3275,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>687</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K82">
-        <v>0.2391304347826087</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K83">
-        <v>0.2378516624040921</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L83">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3285,47 +3327,47 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>596</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K84">
-        <v>0.2321428571428572</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M84">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K85">
-        <v>0.2251655629139073</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L85">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3337,21 +3379,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>585</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K86">
-        <v>0.2147651006711409</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L86">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3363,21 +3405,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K87">
-        <v>0.2117647058823529</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3389,21 +3431,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K88">
-        <v>0.21</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L88">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3415,21 +3457,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K89">
-        <v>0.2037617554858934</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L89">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M89">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3441,21 +3483,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>254</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K90">
-        <v>0.201219512195122</v>
+        <v>0.2132450331125828</v>
       </c>
       <c r="L90">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="M90">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3467,21 +3509,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>131</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K91">
-        <v>0.2</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3493,21 +3535,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K92">
-        <v>0.1948051948051948</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L92">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3519,21 +3561,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K93">
-        <v>0.1926605504587156</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3545,73 +3587,73 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K94">
-        <v>0.1837837837837838</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L94">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="M94">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="N94">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>302</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K95">
-        <v>0.1807228915662651</v>
+        <v>0.1946222791293214</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>68</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K96">
-        <v>0.1744186046511628</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3623,47 +3665,47 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K97">
-        <v>0.1710526315789474</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="L97">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M97">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>378</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K98">
-        <v>0.1709401709401709</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3675,21 +3717,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K99">
-        <v>0.1623616236162362</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L99">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3701,21 +3743,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>227</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K100">
-        <v>0.1612903225806452</v>
+        <v>0.18</v>
       </c>
       <c r="L100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3727,73 +3769,73 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K101">
-        <v>0.1595092024539877</v>
+        <v>0.1698564593301435</v>
       </c>
       <c r="L101">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M101">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>137</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K102">
-        <v>0.1576354679802956</v>
+        <v>0.167032967032967</v>
       </c>
       <c r="L102">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="M102">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>171</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K103">
-        <v>0.1550387596899225</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3805,21 +3847,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K104">
-        <v>0.1479713603818616</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L104">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3831,21 +3873,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>357</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K105">
-        <v>0.1431818181818182</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="L105">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M105">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3857,73 +3899,73 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>377</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K106">
-        <v>0.1412639405204461</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="L106">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M106">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>231</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K107">
-        <v>0.141025641025641</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K108">
-        <v>0.1372549019607843</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L108">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M108">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3935,21 +3977,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K109">
-        <v>0.1349206349206349</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L109">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M109">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3961,21 +4003,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K110">
-        <v>0.134453781512605</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L110">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M110">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3987,21 +4029,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>206</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K111">
-        <v>0.1338199513381995</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L111">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M111">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4013,21 +4055,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K112">
-        <v>0.1311475409836066</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L112">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M112">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4039,47 +4081,47 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K113">
-        <v>0.1306818181818182</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L113">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M113">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N113">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>153</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K114">
-        <v>0.1305841924398626</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L114">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M114">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4091,21 +4133,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>253</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K115">
-        <v>0.1297709923664122</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4117,21 +4159,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>114</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K116">
-        <v>0.1212121212121212</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L116">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M116">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4143,125 +4185,125 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K117">
-        <v>0.1188811188811189</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L117">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N117">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>126</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K118">
-        <v>0.09803921568627451</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L118">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K119">
-        <v>0.09770114942528736</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L119">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M119">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="N119">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>628</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K120">
-        <v>0.09719626168224299</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L120">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="M120">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="N120">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>966</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K121">
-        <v>0.08469945355191257</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L121">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M121">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4273,21 +4315,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>335</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K122">
-        <v>0.0846774193548387</v>
+        <v>0.1</v>
       </c>
       <c r="L122">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M122">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4299,15 +4341,15 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>227</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K123">
-        <v>0.07949790794979079</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L123">
         <v>19</v>
@@ -4325,21 +4367,21 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K124">
-        <v>0.07692307692307693</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L124">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M124">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4351,47 +4393,47 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>192</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K125">
-        <v>0.06779661016949153</v>
+        <v>0.08683473389355742</v>
       </c>
       <c r="L125">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="M125">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N125">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O125">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>385</v>
+        <v>978</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K126">
-        <v>0.0625</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L126">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M126">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4403,47 +4445,47 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>255</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K127">
-        <v>0.06106870229007633</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="L127">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M127">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N127">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O127">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>369</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K128">
-        <v>0.05805892547660312</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L128">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M128">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N128">
         <v>0.96</v>
@@ -4455,137 +4497,267 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>1087</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K129">
-        <v>0.05758157389635317</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="L129">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M129">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N129">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>491</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K130">
-        <v>0.05719557195571956</v>
+        <v>0.07208872458410351</v>
       </c>
       <c r="L130">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M130">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K131">
-        <v>0.05119453924914676</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="L131">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M131">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N131">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="O131">
-        <v>0.29</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P131" t="b">
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>278</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K132">
-        <v>0.04632152588555858</v>
+        <v>0.06165703275529865</v>
       </c>
       <c r="L132">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M132">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N132">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="O132">
-        <v>0.1899999999999999</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>350</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K133">
-        <v>0.03552631578947368</v>
+        <v>0.06157849089332177</v>
       </c>
       <c r="L133">
+        <v>71</v>
+      </c>
+      <c r="M133">
+        <v>75</v>
+      </c>
+      <c r="N133">
+        <v>0.95</v>
+      </c>
+      <c r="O133">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P133" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="134" spans="10:17">
+      <c r="J134" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K134">
+        <v>0.06081081081081081</v>
+      </c>
+      <c r="L134">
+        <v>18</v>
+      </c>
+      <c r="M134">
+        <v>21</v>
+      </c>
+      <c r="N134">
+        <v>0.86</v>
+      </c>
+      <c r="O134">
+        <v>0.14</v>
+      </c>
+      <c r="P134" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="10:17">
+      <c r="J135" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K135">
+        <v>0.06067961165048544</v>
+      </c>
+      <c r="L135">
+        <v>25</v>
+      </c>
+      <c r="M135">
         <v>27</v>
       </c>
-      <c r="M133">
-        <v>34</v>
-      </c>
-      <c r="N133">
-        <v>0.79</v>
-      </c>
-      <c r="O133">
-        <v>0.21</v>
-      </c>
-      <c r="P133" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q133">
-        <v>733</v>
+      <c r="N135">
+        <v>0.93</v>
+      </c>
+      <c r="O135">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="10:17">
+      <c r="J136" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K136">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="L136">
+        <v>16</v>
+      </c>
+      <c r="M136">
+        <v>22</v>
+      </c>
+      <c r="N136">
+        <v>0.73</v>
+      </c>
+      <c r="O136">
+        <v>0.27</v>
+      </c>
+      <c r="P136" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K137">
+        <v>0.04383561643835616</v>
+      </c>
+      <c r="L137">
+        <v>16</v>
+      </c>
+      <c r="M137">
+        <v>16</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K138">
+        <v>0.03937007874015748</v>
+      </c>
+      <c r="L138">
+        <v>30</v>
+      </c>
+      <c r="M138">
+        <v>35</v>
+      </c>
+      <c r="N138">
+        <v>0.86</v>
+      </c>
+      <c r="O138">
+        <v>0.14</v>
+      </c>
+      <c r="P138" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
